--- a/Plan Saham.xlsx
+++ b/Plan Saham.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saiful Arifin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK DATA\Saham\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6210" windowHeight="4410" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6210" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="WATHCLIST" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>STOCK</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>3300-3500</t>
+  </si>
+  <si>
+    <t>BRMS</t>
   </si>
 </sst>
 </file>
@@ -823,10 +826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,7 +844,7 @@
     <col min="11" max="11" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -877,7 +880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -916,7 +919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -950,8 +953,14 @@
         <f>(I3-D3)/I3*100</f>
         <v>2.9535864978902953</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -986,8 +995,14 @@
         <v>5.3333333333333339</v>
       </c>
       <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1009,8 +1024,14 @@
         <v>25</v>
       </c>
       <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1027,7 +1048,7 @@
       <c r="H6" s="5"/>
       <c r="J6" s="5"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1062,7 +1083,7 @@
         <v>9.0534979423868318</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>5.8035714285714288</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1171,6 +1192,20 @@
       </c>
       <c r="K10" s="12" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>43157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1183,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,7 +1541,9 @@
       <c r="C13" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="28">
+        <v>700</v>
+      </c>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
       <c r="G13" s="28"/>
@@ -1638,7 +1675,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1691,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="23">
-        <v>147</v>
+        <v>500</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -1664,25 +1701,25 @@
         <v>49</v>
       </c>
       <c r="B2" s="23">
-        <v>160</v>
+        <v>750</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="23">
-        <v>142</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
       <c r="B3" s="18">
         <f>B2-B1</f>
-        <v>13</v>
+        <v>250</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18">
         <f>D2-B1</f>
-        <v>-5</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,12 +1728,12 @@
       </c>
       <c r="B4" s="21">
         <f>B3/B1</f>
-        <v>8.8435374149659865E-2</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="22">
         <f>D3/B1</f>
-        <v>-3.4013605442176874E-2</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1721,14 +1758,14 @@
       </c>
       <c r="B7" s="20">
         <f>B6*B4</f>
-        <v>88435.374149659867</v>
+        <v>500000</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="20">
         <f>B6*D4</f>
-        <v>-34013.605442176871</v>
+        <v>-150000</v>
       </c>
     </row>
   </sheetData>

--- a/Plan Saham.xlsx
+++ b/Plan Saham.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6210" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6210" windowHeight="4410" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WATHCLIST" sheetId="1" r:id="rId1"/>
     <sheet name="PORTOFOLIO" sheetId="2" r:id="rId2"/>
     <sheet name="PERC" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PORTOFOLIO!$A$3:$K$17</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -85,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
   <si>
     <t>STOCK</t>
   </si>
@@ -283,6 +286,18 @@
   </si>
   <si>
     <t>BRMS</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>STRONG BUY</t>
   </si>
 </sst>
 </file>
@@ -403,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -478,13 +493,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -504,9 +532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -523,16 +548,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,7 +560,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -828,7 +862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -1216,10 +1250,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,433 +1272,484 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="15"/>
+      <c r="K3" s="33" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="23">
         <v>3120</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="23">
         <v>3600</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <v>2650</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <v>2850</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="29" t="s">
         <v>55</v>
       </c>
+      <c r="K4" s="34" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>3770</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>4300</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24">
+      <c r="G5" s="23"/>
+      <c r="H5" s="23">
         <v>2880</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <v>3140</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="29" t="s">
         <v>55</v>
       </c>
+      <c r="K5" s="34" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>1420</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>1540</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="23">
         <v>1600</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23">
         <v>1245</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <v>1300</v>
       </c>
-      <c r="J6" s="26" t="s">
-        <v>55</v>
+      <c r="J6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="23">
         <v>530</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>555</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <v>590</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>428</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <v>450</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <v>464</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
+      <c r="K7" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28">
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26">
         <v>1970</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="26">
         <v>2070</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="K8" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>190</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>156</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>152</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <v>150</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <v>162</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
+      <c r="K9" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="26">
         <v>180</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="26">
         <v>144</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28">
+      <c r="G10" s="26"/>
+      <c r="H10" s="26">
         <v>142</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="26">
         <v>150</v>
       </c>
-      <c r="J10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>54</v>
       </c>
+      <c r="K10" s="34" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="23">
         <v>8</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="24">
         <v>410</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24">
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23">
         <v>378</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <v>384</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="K11" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
         <v>9</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="23">
         <v>4190</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="24">
         <v>4450</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>4750</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>4030</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>3950</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <v>3900</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <v>4030</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="29" t="s">
         <v>56</v>
       </c>
+      <c r="K12" s="34" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="26">
         <v>700</v>
       </c>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26">
         <v>500</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="26">
         <v>525</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>60</v>
       </c>
+      <c r="K13" s="34" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="23">
         <v>11</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="24">
         <v>350</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="23">
         <v>390</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24">
+      <c r="E14" s="23"/>
+      <c r="F14" s="23">
         <v>275</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24">
+      <c r="G14" s="23"/>
+      <c r="H14" s="23">
         <v>260</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <v>282</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="K14" s="34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
         <v>12</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="28">
         <v>690</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28">
         <v>635</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="28">
         <v>615</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="K15" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
         <v>13</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="24">
         <v>348</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>400</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="23">
         <v>500</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24">
+      <c r="G16" s="23"/>
+      <c r="H16" s="23">
         <v>322</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <v>324</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="K16" s="34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
         <v>14</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23">
         <v>2600</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <v>2610</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="32" t="s">
         <v>54</v>
       </c>
+      <c r="K17" s="34" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:K17">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="OPEN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1675,7 +1761,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,85 +1773,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="23">
-        <v>500</v>
-      </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="22">
+        <v>1320</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="23">
-        <v>750</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="22">
+        <v>1540</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="23">
-        <v>425</v>
+      <c r="D2" s="22">
+        <v>1240</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18">
+      <c r="A3" s="16"/>
+      <c r="B3" s="17">
         <f>B2-B1</f>
-        <v>250</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18">
+        <v>220</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17">
         <f>D2-B1</f>
-        <v>-75</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <f>B3/B1</f>
-        <v>0.5</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="22">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21">
         <f>D3/B1</f>
-        <v>-0.15</v>
+        <v>-6.0606060606060608E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>1000000</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="19">
         <f>B6*B4</f>
-        <v>500000</v>
-      </c>
-      <c r="C7" s="17" t="s">
+        <v>166666.66666666666</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <f>B6*D4</f>
-        <v>-150000</v>
+        <v>-60606.060606060608</v>
       </c>
     </row>
   </sheetData>

--- a/Plan Saham.xlsx
+++ b/Plan Saham.xlsx
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>STOCK</t>
   </si>
@@ -298,6 +298,24 @@
   </si>
   <si>
     <t>STRONG BUY</t>
+  </si>
+  <si>
+    <t>460-480</t>
+  </si>
+  <si>
+    <t>SECTOR STRENGTH</t>
+  </si>
+  <si>
+    <t>AGRI</t>
+  </si>
+  <si>
+    <t>PROPERTI</t>
+  </si>
+  <si>
+    <t>CTRA, WSBP, WIKA, PTPP, APLN, ASRI</t>
+  </si>
+  <si>
+    <t>LSIP, SIMP, AALI, BWPT, GZCO</t>
   </si>
 </sst>
 </file>
@@ -362,7 +380,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +435,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -506,13 +530,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -548,34 +677,84 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -860,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,9 +1055,11 @@
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="11"/>
+    <col min="14" max="14" width="12" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -913,8 +1094,11 @@
       <c r="N1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -949,11 +1133,14 @@
         <v>3.3175355450236967</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="N2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="27">
+        <v>43160</v>
+      </c>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -987,14 +1174,21 @@
         <f>(I3-D3)/I3*100</f>
         <v>2.9535864978902953</v>
       </c>
-      <c r="N3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O3">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1030,13 +1224,19 @@
       </c>
       <c r="K4" s="10"/>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="O4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1059,13 +1259,13 @@
       </c>
       <c r="J5" s="5"/>
       <c r="N5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="O5">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1081,8 +1281,14 @@
       <c r="F6" s="5"/>
       <c r="H6" s="5"/>
       <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N6" t="s">
+        <v>11</v>
+      </c>
+      <c r="O6">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1117,7 +1323,7 @@
         <v>9.0534979423868318</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1152,7 +1358,7 @@
         <v>5.8035714285714288</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1190,7 +1396,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1228,7 +1434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1251,10 +1457,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,170 +1508,170 @@
       <c r="J3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="34" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="26">
         <v>3120</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="26">
         <v>3600</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="26">
         <v>2650</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="26">
         <v>2850</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="K4" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="26">
         <v>3770</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="26">
         <v>4300</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26">
         <v>2880</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="26">
         <v>3140</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="47">
         <v>1420</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="26">
         <v>1540</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="26">
         <v>1600</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26">
         <v>1245</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="26">
         <v>1300</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="26">
         <v>530</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="47">
         <v>555</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <v>590</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="26">
         <v>428</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="26">
         <v>450</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="26">
         <v>464</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
+      <c r="A8" s="37">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26">
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37">
         <v>1970</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="37">
         <v>2070</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="J8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="39" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1493,252 +1699,281 @@
       <c r="I9" s="23">
         <v>162</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
+      <c r="A10" s="35">
         <v>7</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="35">
         <v>180</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="35">
         <v>144</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26">
+      <c r="G10" s="35"/>
+      <c r="H10" s="35">
         <v>142</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="35">
         <v>150</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="J10" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="47">
         <v>410</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26">
         <v>378</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="26">
         <v>384</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="40">
         <v>9</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="40">
         <v>4190</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="42">
         <v>4450</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="40">
         <v>4750</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="40">
         <v>4030</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="40">
         <v>3950</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="40">
         <v>3900</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="40">
         <v>4030</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="44" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
+      <c r="A13" s="51">
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="51">
         <v>700</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26">
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51">
         <v>500</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="51">
         <v>525</v>
       </c>
-      <c r="J13" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13" s="34" t="s">
+      <c r="J13" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="26">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="47">
         <v>350</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="26">
         <v>390</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23">
+      <c r="E14" s="26"/>
+      <c r="F14" s="26">
         <v>275</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23">
+      <c r="G14" s="26"/>
+      <c r="H14" s="26">
         <v>260</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="26">
         <v>282</v>
       </c>
-      <c r="J14" s="29" t="s">
+      <c r="J14" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="26" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28">
+      <c r="A15" s="45">
         <v>12</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="45">
         <v>690</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28">
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45">
         <v>635</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="45">
         <v>615</v>
       </c>
-      <c r="J15" s="31" t="s">
+      <c r="J15" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="34" t="s">
+      <c r="K15" s="39" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="29">
         <v>13</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="31">
         <v>348</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="29">
         <v>400</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="29">
         <v>500</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29">
         <v>322</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="29">
         <v>324</v>
       </c>
       <c r="J16" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="26">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26">
         <v>2600</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="26">
         <v>2610</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>15</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="26">
+        <v>1300</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26">
+        <v>1125</v>
+      </c>
+      <c r="I18" s="26">
+        <v>1165</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1761,7 +1996,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +2012,7 @@
         <v>43</v>
       </c>
       <c r="B1" s="22">
-        <v>1320</v>
+        <v>525</v>
       </c>
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
@@ -1787,25 +2022,25 @@
         <v>49</v>
       </c>
       <c r="B2" s="22">
-        <v>1540</v>
+        <v>700</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="22">
-        <v>1240</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
       <c r="B3" s="17">
         <f>B2-B1</f>
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17">
         <f>D2-B1</f>
-        <v>-80</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,12 +2049,12 @@
       </c>
       <c r="B4" s="20">
         <f>B3/B1</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="21">
         <f>D3/B1</f>
-        <v>-6.0606060606060608E-2</v>
+        <v>-4.7619047619047616E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1844,14 +2079,14 @@
       </c>
       <c r="B7" s="19">
         <f>B6*B4</f>
-        <v>166666.66666666666</v>
+        <v>333333.33333333331</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="19">
         <f>B6*D4</f>
-        <v>-60606.060606060608</v>
+        <v>-47619.047619047618</v>
       </c>
     </row>
   </sheetData>

--- a/Plan Saham.xlsx
+++ b/Plan Saham.xlsx
@@ -1460,7 +1460,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
